--- a/output/fit_clients/fit_round_81.xlsx
+++ b/output/fit_clients/fit_round_81.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7515025296.835759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00469576743774153</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.907532090096026</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9599132181277821</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.907532090096026</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5969369760.766041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005872633038240428</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.361512923565768</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9054284332213701</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.361512923565768</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4878924155.832337</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003832986920790594</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.707901546190539</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9510258136132499</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.707901546190539</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4581100761.723467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00394038485456819</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.50792862107709</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8471704459492603</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.50792862107709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7800425987.179701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001903040630012752</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.27198320343164</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8741663083795699</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.27198320343164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7539079810.637286</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001056712169806514</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.416547310260091</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9190477248537018</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.416547310260091</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6725106270.026012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002781136301980751</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.129713559612899</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.965916917289958</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.129713559612899</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4864213594.482313</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005189109554535889</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.715697174456797</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9014483688293711</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.715697174456797</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3562582038.114195</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005679369087304969</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.484111071226389</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9479815640472623</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.484111071226389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4993727046.682413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.000925065090185736</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.332300997868664</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.79121017615083</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.332300997868664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6244496448.50016</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001565176483699359</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.755941836709998</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9855385567956866</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.755941836709998</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6191722960.468917</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003201271416923118</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.41591839226839</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.037276726328123</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.41591839226839</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8891155081.584644</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003081695688799301</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.838517080424816</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.907208809048793</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.838517080424816</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8076957535.088161</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.00545198031168421</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.217044662432827</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.003114924451751</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.217044662432827</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8361772640.44478</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004235294453658618</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.916652981900357</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9254012860254924</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.916652981900357</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4749596533.528808</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002952645886771399</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.875673333734903</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9541424764637424</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.875673333734903</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6546534669.257241</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001204716778704807</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.908629803294944</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9420545684731076</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.908629803294944</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3303926044.688914</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001691004792008392</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>17</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9271339789810249</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.519316156624984</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.171879602077158</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.519316156624984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6269150575.255638</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001396621830707252</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6634201122811331</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.893633065456173</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8763953104809613</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.893633065456173</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7330872669.846453</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005961406151022957</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.750743291342896</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.877109416035274</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.750743291342896</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4622757166.498545</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005205441114948649</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.490969357163026</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8016753715348752</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.490969357163026</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7902030173.879133</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.002008259806767954</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>22</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8719727416545475</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.166706510302163</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.085734982436653</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.166706510302163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7333156997.550423</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003764200136918763</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.85769331659515</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9980652883474032</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.85769331659515</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5759468627.842251</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003480089194681618</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>11</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.140092034131658</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9540603495293126</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.140092034131658</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5167096027.812414</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001078806977255243</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>20</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.163010622736783</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8184916836507857</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.163010622736783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8150765186.936458</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002941903027468184</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.608966078650026</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9412810085539864</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.608966078650026</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6458554681.015201</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004811737854943963</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>13</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.874454426981236</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9254012860254924</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.874454426981236</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7342268425.377221</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001411166071459401</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.2565446556043284</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.855959169575926</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.5541887604535601</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.855959169575926</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5909517794.642958</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003973195569695604</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>18</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8095412862863407</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.317709566508528</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.052536585645633</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.317709566508528</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5100217189.65832</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002973272226179823</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.460466009254854</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9601580759862107</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.460466009254854</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4381073935.630617</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001206814336664908</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>18</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.734649846686693</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9235711395443461</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.734649846686693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6223472118.573069</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003280400875100296</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.050525464167707</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8599545429629381</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.050525464167707</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6218185510.078407</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005524833073368454</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.732013467449655</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7545082013645075</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.732013467449655</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4929326170.529551</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002553019499491515</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.657597122882986</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9356466003066785</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.657597122882986</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7135187910.851633</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003228464264098903</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.66028159564539</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.020849227591898</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.66028159564539</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5922741385.192184</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004274036921998027</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.560522684927771</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.007805281211059</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.560522684927771</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4763647068.145278</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004332347730149958</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.503093139343954</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9120487360888742</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.503093139343954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5812901113.320087</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003242548203830409</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.042147605251821</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8744617307420571</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.042147605251821</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5523801486.264343</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004352977506766954</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>17</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.703517756354424</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9814605174876808</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.703517756354424</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7434433320.82232</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001486225144383195</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.100741140076777</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9474854915423663</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.100741140076777</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4881184360.399459</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00365570056464433</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.482697558185289</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9835016508166398</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.482697558185289</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5235860975.999993</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003498719707904388</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.704560778307918</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9222724585459467</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.704560778307918</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5029419121.882006</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002070598304280277</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>21</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.39975775372646</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9249527159019904</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.39975775372646</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>3724946197.089762</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00107411205940149</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.033543623145146</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9694707563566675</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.033543623145146</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9778292304.630632</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00443916017373543</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>18</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.725116761134299</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.472686976354775</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9129431412584557</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.472686976354775</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8011369481.677532</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002991881164466116</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.8052669637047279</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.50207091872731</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.062186998006934</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.50207091872731</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7118943654.405085</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.00261360169557523</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.269150820620142</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9648376852076292</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.269150820620142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3881293185.931132</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004968758756517771</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>20</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.46348793511368</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8667145991040784</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.46348793511368</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8075844496.346977</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003934090397859688</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.652578218492859</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.032492580727736</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.652578218492859</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5146800788.065216</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004024873287064174</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4656945396580643</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.399139930652994</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.7871425946626951</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.399139930652994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5628495647.159621</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001605016567196076</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>15</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.596303736949899</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8602278538315896</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.596303736949899</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4890525136.637156</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.00250749335751541</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.678726255528147</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.930062309264734</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.678726255528147</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4712826074.529335</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004887979542073276</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.36758415334823</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8532055503758137</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.36758415334823</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6246164448.251359</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004209619151365912</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>18</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.438650516254572</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9064919553683063</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.438650516254572</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4782228306.202968</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002961049259430991</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>16</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.620623001108936</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9109056837517228</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.620623001108936</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8004979064.588063</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003010725321885324</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.621167250758932</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8381436505310761</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.621167250758932</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4576947351.964114</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001842965297999192</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.365099097663223</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8408125077819281</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.365099097663223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6841193288.941433</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003864844185599535</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>15</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.626002756361742</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9027770066145853</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.626002756361742</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4765018462.932725</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004042059831976877</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>18</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.325638262444394</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8271646345677465</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.325638262444394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6172367700.651314</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005117144359304719</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>23</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4576678901684317</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.858247410517669</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.7554700757939888</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.858247410517669</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5115507785.858386</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002714903652833789</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.166188574363576</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8782964533731527</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.166188574363576</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6480003803.280792</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004527529252610067</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.148597357199489</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8860045472835658</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.148597357199489</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4863418882.289703</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003535945885396883</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8705235097039935</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.623133995800413</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.099785624233126</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.623133995800413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5999766150.461287</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004087283738112394</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>18</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.898153808041137</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.001505055467929</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.898153808041137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5307482831.040013</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003974645580754032</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9248681245009144</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.621211653723123</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.160677354376641</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.621211653723123</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5929311267.173147</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005924015828223547</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.044522544834389</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8955633898648209</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.044522544834389</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8890596964.179781</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002290302157635209</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.4632571547452096</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.198126203174128</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.5743129938771274</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.198126203174128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5152063405.013619</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001224130163668558</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.029318189628829</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.984242028200228</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.029318189628829</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6264158672.899233</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003884880959728663</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7189045801785359</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.773136495139893</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9920105869357393</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.773136495139893</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3313843116.311987</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003687983816016718</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.800755853620837</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8101414928308511</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.800755853620837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6550553995.558423</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001958567282424633</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
         <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.510116182223595</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.050178466816553</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.510116182223595</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7436108819.296885</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001308605584830862</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.937823338828389</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9703833521058314</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.937823338828389</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4885599880.362173</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003979158867825681</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8021691978061205</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.521067791723047</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.032394908765043</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.521067791723047</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7258788038.121722</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003393784803517003</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.596317143337736</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8712399101255135</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.596317143337736</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6690767647.518895</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002007983504350876</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.53679013206951</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9280725074258576</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.53679013206951</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5797804195.379469</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005332242698960194</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.119364176238007</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9957392784452364</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.119364176238007</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>4914774880.276818</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.005139312450181966</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.621575636799776</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9279036314957392</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.621575636799776</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8653219090.584358</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002504433850239087</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.770805635783729</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9574945311442199</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.770805635783729</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6831504436.504267</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002612068844433876</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.684395904355457</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9677239570519973</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.684395904355457</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6331222209.719462</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004751365910411414</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.1665336238446987</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.311624431766166</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.4316150575090582</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.311624431766166</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5591064600.17252</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005869668943820289</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.410479314546272</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8822033304922918</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.410479314546272</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8466410347.192114</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002257277208428601</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>22</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.161519339802621</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8275434683888634</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.161519339802621</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5298349175.066551</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005101477621609686</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.360427155625201</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.953625260267799</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.360427155625201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4642565023.285746</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.0031338089730264</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.172004097814201</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.5211573066470477</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.172004097814201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>7004182512.849981</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001937448462106404</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.711191597958369</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9868333819780069</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.711191597958369</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4752071403.636499</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001580787585167356</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>24</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.414570542926636</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.129292098945735</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.727099222154727</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.129292098945735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6352401114.634405</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.00545156559714899</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.518307695999267</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8481222507721871</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.518307695999267</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7217671279.0647</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005415864582470079</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.953176381073388</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9650812936441796</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.953176381073388</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4734469976.788324</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00290835222084059</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>14</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.680178997888654</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9564877206265323</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.680178997888654</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>4989852704.293367</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003242694532648569</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.82371830089709</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8202697007928452</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.82371830089709</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3543959084.668664</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003027489569735629</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.030048786452965</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.062628701830922</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.030048786452965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5008096064.807196</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001920701234432125</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.026780398923682</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.530487457820429</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.403798282034381</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.530487457820429</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5896072776.640385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001204770174709988</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.900400025499887</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.01455276941001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.900400025499887</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7585095574.034478</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002017370110537354</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>13</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.781656761194158</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9298937946981427</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.781656761194158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7846409140.556938</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003305671179989266</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.237225875113487</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9092187327643105</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.237225875113487</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6427794049.759545</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005320105578241528</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.804801753231823</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8981488709738016</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.804801753231823</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8984766625.079784</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003467750608207164</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>16</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.881506616767732</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.401606652952888</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.074620244212998</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.401606652952888</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3404067122.990618</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00537001335837747</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>19</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.435803083212323</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.212285115429312</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.435803083212323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3933196858.16498</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003530401675927068</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.595483698209324</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8281394329728573</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.595483698209324</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7426015389.489939</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001723915707124368</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>17</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6125736339435212</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.7978966816094</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8960007586537045</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.7978966816094</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_81.xlsx
+++ b/output/fit_clients/fit_round_81.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7515025296.835759</v>
+        <v>2214155839.092923</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00469576743774153</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
+        <v>0.09993563322322779</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04291772684403532</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1107077943.888609</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5969369760.766041</v>
+        <v>1953698309.557182</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005872633038240428</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
+        <v>0.1804854894609437</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03081986073268769</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>976849187.5782113</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4878924155.832337</v>
+        <v>3821201919.377289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003832986920790594</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
+        <v>0.160525528510856</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02763268974831962</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1910600961.113064</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4581100761.723467</v>
+        <v>3469361850.847007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00394038485456819</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09117164793260865</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04666920740495734</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1734680964.113957</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7800425987.179701</v>
+        <v>2579370566.258673</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001903040630012752</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.1152244966320932</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05420200573464167</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1289685249.916692</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7539079810.637286</v>
+        <v>2183711247.32527</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001056712169806514</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.07128296014579663</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04627216917476042</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1091855667.028546</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6725106270.026012</v>
+        <v>3774710597.776236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002781136301980751</v>
-      </c>
-      <c r="G8" t="b">
+        <v>0.1492511817837795</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02857467480257233</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>21</v>
+      <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1887355435.505652</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4864213594.482313</v>
+        <v>1409082142.145734</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005189109554535889</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25</v>
+        <v>0.1926245484442422</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03168958376846691</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>704541179.6062485</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3562582038.114195</v>
+        <v>3934302997.389482</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005679369087304969</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1725597580122676</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0536551919672098</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>34</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1967151515.401061</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4993727046.682413</v>
+        <v>3645255242.008323</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000925065090185736</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1835180544042544</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04487592404668724</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1822627608.867333</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6244496448.50016</v>
+        <v>3115676053.720765</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001565176483699359</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>23</v>
+        <v>0.1379354572849315</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03484649963016517</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>29</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1557838055.386197</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6191722960.468917</v>
+        <v>4174683033.647137</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003201271416923118</v>
-      </c>
-      <c r="G13" t="b">
+        <v>0.09365564504991976</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01958521992990551</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>16</v>
+      <c r="I13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2087341562.77893</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8891155081.584644</v>
+        <v>3299930599.924341</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003081695688799301</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18</v>
+        <v>0.1302968052631004</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02833315575511695</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1649965312.604779</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8076957535.088161</v>
+        <v>1399444742.632102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00545198031168421</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.1025653770635545</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0308285870887613</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>699722433.9356793</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8361772640.44478</v>
+        <v>2176375828.396022</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004235294453658618</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>26</v>
+        <v>0.1008609024972474</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03232553219641349</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1088187973.837059</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4749596533.528808</v>
+        <v>3243434415.572093</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002952645886771399</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1130938385341392</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03578919263155368</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1621717279.721562</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6546534669.257241</v>
+        <v>2466155624.976078</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001204716778704807</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>22</v>
+        <v>0.1345754626962981</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03104210874584565</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1233077881.334205</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3303926044.688914</v>
+        <v>1299699056.745746</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001691004792008392</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1608918180442082</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02179769974795557</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>649849630.4537333</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6269150575.255638</v>
+        <v>2002134108.758309</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001396621830707252</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
+        <v>0.09758262433491362</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02770747078921609</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1001067080.419801</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7330872669.846453</v>
+        <v>2360709791.665431</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005961406151022957</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15</v>
+        <v>0.06872274670320359</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0425231887179695</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1180354897.168147</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4622757166.498545</v>
+        <v>4009046928.372044</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005205441114948649</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1337134367654926</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0396595482570499</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2004523465.198571</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7902030173.879133</v>
+        <v>1453914489.107761</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002008259806767954</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>15</v>
+        <v>0.1814563450195257</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03947697816286796</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>726957238.1757324</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7333156997.550423</v>
+        <v>2866565645.148239</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003764200136918763</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.1172407141835744</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03524792344780566</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1433282866.723126</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5759468627.842251</v>
+        <v>954066738.8208827</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003480089194681618</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>18</v>
+        <v>0.08137652297383077</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03069479112270064</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>477033443.8696592</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5167096027.812414</v>
+        <v>1084850773.285223</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001078806977255243</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09260874275479526</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03468749084383825</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>542425379.3992033</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8150765186.936458</v>
+        <v>3823649778.282433</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002941903027468184</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.09960758223863506</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02477642718523571</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1911824907.954221</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6458554681.015201</v>
+        <v>2688441030.658148</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004811737854943963</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>20</v>
+        <v>0.1394959747633279</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03383194010692728</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1344220499.403293</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7342268425.377221</v>
+        <v>3777127864.122934</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001411166071459401</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.09183556381919536</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04087704441429745</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>37</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1888563964.262623</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5909517794.642958</v>
+        <v>2198555160.554428</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003973195569695604</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1351272813580141</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02545375251061031</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1099277640.240824</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5100217189.65832</v>
+        <v>985711503.8681405</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002973272226179823</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>16</v>
+        <v>0.09888837362775736</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05121839496510767</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>492855753.7433686</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4381073935.630617</v>
+        <v>1181356471.193398</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001206814336664908</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1021001479023747</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02569699518317211</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>590678237.8383491</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6223472118.573069</v>
+        <v>1961863883.721349</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003280400875100296</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>18</v>
+        <v>0.201486264696803</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0573088219004133</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>23</v>
+      </c>
+      <c r="J33" t="n">
+        <v>980932025.8141981</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6218185510.078407</v>
+        <v>1326842543.339056</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005524833073368454</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>25</v>
+        <v>0.1000100825254179</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02803695090765716</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>663421255.819031</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4929326170.529551</v>
+        <v>853741086.3781374</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002553019499491515</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>21</v>
+        <v>0.1060838015277247</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03582385394393423</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>426870593.7517248</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2853408585.083951</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1413174323178109</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01974810741294234</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7135187910.851633</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.003228464264098903</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>23</v>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1426704286.100356</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5922741385.192184</v>
+        <v>2571949849.79494</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004274036921998027</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20</v>
+        <v>0.106489279065565</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03018093193083538</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1285975030.775945</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4763647068.145278</v>
+        <v>1503362188.863656</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004332347730149958</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.0805299613131846</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02833580948248104</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>751681143.127393</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5812901113.320087</v>
+        <v>1922261812.022311</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003242548203830409</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1562729260627627</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02467536027616331</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>961130912.2492617</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5523801486.264343</v>
+        <v>1338900458.141258</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004352977506766954</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1015159030521284</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04224941907050711</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>669450235.5299993</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7434433320.82232</v>
+        <v>2777503352.598027</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001486225144383195</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.125959272465643</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03329269062964085</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>23</v>
+      <c r="I41" t="n">
+        <v>21</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1388751674.330993</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4881184360.399459</v>
+        <v>3745525895.672338</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00365570056464433</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1179385622143198</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03691913089213168</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1872762959.509106</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5235860975.999993</v>
+        <v>2322275916.05593</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003498719707904388</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1593254659631354</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.025668664494413</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>29</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1161138024.482988</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5029419121.882006</v>
+        <v>2065207929.611591</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002070598304280277</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>22</v>
+        <v>0.08193874438116605</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03043023250753254</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1032604084.069138</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>3724946197.089762</v>
+        <v>2165750701.204331</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00107411205940149</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1367621872431322</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05567945848406167</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1082875358.075472</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9778292304.630632</v>
+        <v>4512448496.081708</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00443916017373543</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>13</v>
+        <v>0.146823647032974</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04911353970757366</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2256224246.863853</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8011369481.677532</v>
+        <v>3366448999.529321</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002991881164466116</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1982683219386021</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05213021247805495</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1683224462.902589</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4676455561.389276</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0726634910199383</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03239607402336998</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7118943654.405085</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.00261360169557523</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>15</v>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2338227775.664841</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3881293185.931132</v>
+        <v>1327004376.774887</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004968758756517771</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1291689814353543</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03700849833710672</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>663502247.2213855</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8075844496.346977</v>
+        <v>2662683999.285155</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003934090397859688</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>22</v>
+        <v>0.1194005678308478</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03810151466006331</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1331342083.40739</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5146800788.065216</v>
+        <v>1484120571.905298</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004024873287064174</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1477510793682434</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05179974459721966</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>742060291.3748908</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5628495647.159621</v>
+        <v>4170784457.749418</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001605016567196076</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>19</v>
+        <v>0.1020266490316145</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05793809499866159</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>33</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2085392275.218306</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4890525136.637156</v>
+        <v>3676968595.207971</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00250749335751541</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>15</v>
+        <v>0.1238838357696016</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03421730227077627</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1838484283.172835</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>501</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3355313948.525824</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1298779751034662</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04742268876374192</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="D54" t="n">
-        <v>591</v>
-      </c>
-      <c r="E54" t="n">
-        <v>4712826074.529335</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.004887979542073276</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>21</v>
+      <c r="I54" t="n">
+        <v>26</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1677656987.634333</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6246164448.251359</v>
+        <v>4088820132.276414</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004209619151365912</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>26</v>
+        <v>0.1901401342127747</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02240846653732153</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2044410044.902782</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4782228306.202968</v>
+        <v>1302575179.841073</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002961049259430991</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1093750156953528</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04410230444245712</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>651287661.2996953</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8004979064.588063</v>
+        <v>3394873817.553155</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003010725321885324</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1381092526673798</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02357849556973949</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1697436946.257093</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4576947351.964114</v>
+        <v>1526793645.478167</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001842965297999192</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>18</v>
+        <v>0.1646536609090267</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0330968661979112</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>763396851.3589411</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6841193288.941433</v>
+        <v>5417370204.423724</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003864844185599535</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1291627838177101</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03951490360368526</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2708685009.721358</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4765018462.932725</v>
+        <v>2562440514.772914</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004042059831976877</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1572807344586655</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02211220784469802</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1281220281.766384</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6172367700.651314</v>
+        <v>3394678738.113665</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005117144359304719</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>19</v>
+        <v>0.1139375150726352</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02275359832282893</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>28</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1697339312.210326</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5115507785.858386</v>
+        <v>1912760068.778542</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002714903652833789</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1275192013091205</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03511565453983566</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>956380079.2559655</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6480003803.280792</v>
+        <v>4660439635.190075</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004527529252610067</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>19</v>
+        <v>0.06772857259476484</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03245907919162629</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>23</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2330219850.425773</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4863418882.289703</v>
+        <v>5428774768.468463</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003535945885396883</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.187859294179234</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02339321391050445</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2714387520.510317</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5999766150.461287</v>
+        <v>5763332027.088503</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004087283738112394</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>21</v>
+        <v>0.1337051318979025</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01947619611982877</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>29</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2881665926.834044</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5307482831.040013</v>
+        <v>4750416504.058052</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003974645580754032</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>17</v>
+        <v>0.1255612047392595</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04515951773536232</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>23</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2375208265.75257</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5929311267.173147</v>
+        <v>3437280360.048269</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005924015828223547</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.08038776939335096</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04047677740120221</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>26</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1718640161.212589</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8890596964.179781</v>
+        <v>4855742151.252041</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002290302157635209</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>17</v>
+        <v>0.1253087581841578</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03331720179593167</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>26</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2427871123.187637</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5152063405.013619</v>
+        <v>2408233612.321004</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001224130163668558</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1435613366916664</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05641504995957843</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1204116863.841461</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6264158672.899233</v>
+        <v>3316918430.705336</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003884880959728663</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.08572515109604491</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04070803542226296</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1658459212.854149</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3313843116.311987</v>
+        <v>3776049520.584955</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003687983816016718</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1459704771995705</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02221760355179806</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>29</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1888024774.530958</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6550553995.558423</v>
+        <v>2214869958.967731</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001958567282424633</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>17</v>
+        <v>0.09151563902316116</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.041733296932487</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1107434891.082271</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7436108819.296885</v>
+        <v>2484947203.367656</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001308605584830862</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.07518738680880198</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04021870758666516</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1242473644.715838</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4885599880.362173</v>
+        <v>4023893177.607129</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003979158867825681</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1805383627704013</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02327497935097899</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>28</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2011946565.619794</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7258788038.121722</v>
+        <v>2073476259.78924</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003393784803517003</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15</v>
+        <v>0.1180390687208996</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03762713917468567</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1036738087.150048</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6690767647.518895</v>
+        <v>3662147486.171469</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002007983504350876</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17</v>
+        <v>0.1228439099254608</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02903805725777317</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1831073713.522306</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5797804195.379469</v>
+        <v>1402074665.558753</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005332242698960194</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1371069714030916</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02285272893762328</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>701037305.9067526</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4914774880.276818</v>
+        <v>4482123063.473076</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005139312450181966</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.09004895102847729</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04757564459834891</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>29</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2241061462.835449</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8653219090.584358</v>
+        <v>1673286724.511676</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002504433850239087</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>17</v>
+        <v>0.1183464202000114</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0327953480949623</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>836643426.6846235</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6831504436.504267</v>
+        <v>4091829321.896957</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002612068844433876</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.09557443730504736</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03003388628306404</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>17</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2045914664.900873</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6331222209.719462</v>
+        <v>3437849925.408888</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004751365910411414</v>
-      </c>
-      <c r="G81" t="b">
+        <v>0.1117481735192119</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03278883600566375</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="H81" t="n">
-        <v>13</v>
+      <c r="I81" t="n">
+        <v>19</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1718924904.952277</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5591064600.17252</v>
+        <v>3502714958.097704</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005869668943820289</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1952315910785258</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0253804873222888</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>30</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1751357546.494921</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8466410347.192114</v>
+        <v>1619712756.854613</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002257277208428601</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1166435488499795</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03255915424387427</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>809856316.3452413</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5298349175.066551</v>
+        <v>1668223131.863221</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005101477621609686</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
+        <v>0.07937396252865322</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04723891296488895</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>834111619.4382559</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4642565023.285746</v>
+        <v>3152148360.436619</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0031338089730264</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.141051770039578</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04570753138787142</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1576074257.075867</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>7004182512.849981</v>
+        <v>2389111362.152483</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001937448462106404</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.1257810596637565</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02338607329126039</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1194555762.735774</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4752071403.636499</v>
+        <v>1321889117.477794</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001580787585167356</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1863936104830081</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.030308079462366</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>660944645.4814745</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6352401114.634405</v>
+        <v>3427408409.606564</v>
       </c>
       <c r="F88" t="n">
-        <v>0.00545156559714899</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1710319994046459</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03505813970753387</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1713704277.384314</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7217671279.0647</v>
+        <v>2142050704.867305</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005415864582470079</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>17</v>
+        <v>0.1544642562650664</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03465897032625885</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1071025453.345398</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4734469976.788324</v>
+        <v>1506628505.848249</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00290835222084059</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>14</v>
+        <v>0.1336885489727471</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05010602689735778</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>753314232.8078319</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>4989852704.293367</v>
+        <v>1938035708.845054</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003242694532648569</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1179776888188812</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05620839237902462</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>969017834.8620678</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3543959084.668664</v>
+        <v>2046252138.685248</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003027489569735629</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06793431991048865</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03059834039129887</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1023126018.94714</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5008096064.807196</v>
+        <v>3075705760.025505</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001920701234432125</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>27</v>
+        <v>0.134697848163718</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03867518315162114</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>24</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1537852940.304232</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5896072776.640385</v>
+        <v>1693657473.957341</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001204770174709988</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>26</v>
+        <v>0.1053060146820132</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03376808054549418</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>846828695.3771193</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7585095574.034478</v>
+        <v>3234355254.948145</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002017370110537354</v>
-      </c>
-      <c r="G95" t="b">
+        <v>0.1317327059579142</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04191198853636199</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="H95" t="n">
-        <v>20</v>
+      <c r="I95" t="n">
+        <v>19</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1617177610.083434</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7846409140.556938</v>
+        <v>1982220269.163181</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003305671179989266</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>21</v>
+        <v>0.14032247359824</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0424436820719553</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>991110123.3664038</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6427794049.759545</v>
+        <v>5325942069.960277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005320105578241528</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>21</v>
+        <v>0.150492414470264</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02142567541161404</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>26</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2662971197.884354</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8984766625.079784</v>
+        <v>3646089081.446792</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003467750608207164</v>
-      </c>
-      <c r="G98" t="b">
+        <v>0.1121240854565298</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03164356544848177</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="H98" t="n">
-        <v>30</v>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1823044569.137239</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3404067122.990618</v>
+        <v>2206228315.433071</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00537001335837747</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.108757696892611</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0269130402096683</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1103114086.076815</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3933196858.16498</v>
+        <v>4431128725.130309</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003530401675927068</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1787574151316219</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0233779702224376</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2215564467.546001</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7426015389.489939</v>
+        <v>3168038458.462122</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001723915707124368</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>26</v>
+        <v>0.1941519490970126</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03796407261017598</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>35</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1584019340.40555</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_81.xlsx
+++ b/output/fit_clients/fit_round_81.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2214155839.092923</v>
+        <v>1658647412.40985</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09993563322322779</v>
+        <v>0.07001797753846691</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04291772684403532</v>
+        <v>0.03129522355348007</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1107077943.888609</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1953698309.557182</v>
+        <v>1648614274.66562</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1804854894609437</v>
+        <v>0.1838482655976306</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03081986073268769</v>
+        <v>0.04320004877098551</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>976849187.5782113</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3821201919.377289</v>
+        <v>5053011195.825792</v>
       </c>
       <c r="F4" t="n">
-        <v>0.160525528510856</v>
+        <v>0.1668671244401473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02763268974831962</v>
+        <v>0.02542239399371431</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1910600961.113064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3469361850.847007</v>
+        <v>3741039000.080904</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09117164793260865</v>
+        <v>0.08190622806102307</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04666920740495734</v>
+        <v>0.03915364249126955</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1734680964.113957</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2579370566.258673</v>
+        <v>2437030356.016179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1152244966320932</v>
+        <v>0.1285406232077942</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05420200573464167</v>
+        <v>0.05040556454020041</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1289685249.916692</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2183711247.32527</v>
+        <v>1953484028.207777</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07128296014579663</v>
+        <v>0.09227331605192554</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04627216917476042</v>
+        <v>0.04791968764149218</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1091855667.028546</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3774710597.776236</v>
+        <v>2648612823.355459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1492511817837795</v>
+        <v>0.2174857762152048</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02857467480257233</v>
+        <v>0.02683981368897588</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1887355435.505652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1409082142.145734</v>
+        <v>1776952931.534464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1926245484442422</v>
+        <v>0.1788327460553939</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03168958376846691</v>
+        <v>0.03197252372902141</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>704541179.6062485</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3934302997.389482</v>
+        <v>4403716030.622909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1725597580122676</v>
+        <v>0.1851956305120502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0536551919672098</v>
+        <v>0.04839423480207093</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>34</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1967151515.401061</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3645255242.008323</v>
+        <v>3725300493.132493</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1835180544042544</v>
+        <v>0.1804313023184424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04487592404668724</v>
+        <v>0.04228995561049704</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>34</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1822627608.867333</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3115676053.720765</v>
+        <v>2113145618.050085</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1379354572849315</v>
+        <v>0.1957172409849263</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03484649963016517</v>
+        <v>0.05056022371390725</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1557838055.386197</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4174683033.647137</v>
+        <v>4639008283.336864</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09365564504991976</v>
+        <v>0.0713507560235736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01958521992990551</v>
+        <v>0.02114371730555376</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2087341562.77893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3299930599.924341</v>
+        <v>2674780803.890466</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1302968052631004</v>
+        <v>0.1210996564083003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02833315575511695</v>
+        <v>0.04238400857075521</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1649965312.604779</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1399444742.632102</v>
+        <v>1552196225.798975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1025653770635545</v>
+        <v>0.07935480118554802</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0308285870887613</v>
+        <v>0.048964963271152</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>699722433.9356793</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2176375828.396022</v>
+        <v>2421477160.368534</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1008609024972474</v>
+        <v>0.0886616296209819</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03232553219641349</v>
+        <v>0.0403014768295385</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1088187973.837059</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3243434415.572093</v>
+        <v>5303645116.366144</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1130938385341392</v>
+        <v>0.1424577462877744</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03578919263155368</v>
+        <v>0.04741853111156687</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1621717279.721562</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2466155624.976078</v>
+        <v>2760997203.917123</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1345754626962981</v>
+        <v>0.1696212848769119</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03104210874584565</v>
+        <v>0.03120912041146063</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1233077881.334205</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1299699056.745746</v>
+        <v>1295578295.343044</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1608918180442082</v>
+        <v>0.1644849158601107</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02179769974795557</v>
+        <v>0.01727883902294077</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>649849630.4537333</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2002134108.758309</v>
+        <v>2752480132.798351</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09758262433491362</v>
+        <v>0.1231503628629158</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02770747078921609</v>
+        <v>0.02314433600628069</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1001067080.419801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2360709791.665431</v>
+        <v>1987275950.567544</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06872274670320359</v>
+        <v>0.06811164697160173</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0425231887179695</v>
+        <v>0.03793497571343916</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1180354897.168147</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4009046928.372044</v>
+        <v>3469823904.033611</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1337134367654926</v>
+        <v>0.09640790454265108</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0396595482570499</v>
+        <v>0.0374712446636335</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2004523465.198571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1453914489.107761</v>
+        <v>1463214446.40878</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1814563450195257</v>
+        <v>0.1577290855012673</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03947697816286796</v>
+        <v>0.05210812952617664</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>726957238.1757324</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2866565645.148239</v>
+        <v>3100756080.455315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1172407141835744</v>
+        <v>0.1089829745110066</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03524792344780566</v>
+        <v>0.02989935114241916</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1433282866.723126</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>954066738.8208827</v>
+        <v>1455599930.698557</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08137652297383077</v>
+        <v>0.08218427997887882</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03069479112270064</v>
+        <v>0.02974556979649878</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>477033443.8696592</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1084850773.285223</v>
+        <v>1002027224.04732</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09260874275479526</v>
+        <v>0.1213651037707283</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03468749084383825</v>
+        <v>0.02817645342891099</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>542425379.3992033</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3823649778.282433</v>
+        <v>3632119261.751291</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09960758223863506</v>
+        <v>0.1294676811886647</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02477642718523571</v>
+        <v>0.01659835879836858</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1911824907.954221</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2688441030.658148</v>
+        <v>3277579578.29164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1394959747633279</v>
+        <v>0.1250932843238547</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03383194010692728</v>
+        <v>0.03369505517782631</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1344220499.403293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3777127864.122934</v>
+        <v>5935720688.309596</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09183556381919536</v>
+        <v>0.1441955708033094</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04087704441429745</v>
+        <v>0.033045119996824</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>37</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1888563964.262623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2198555160.554428</v>
+        <v>1936750896.522926</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1351272813580141</v>
+        <v>0.1197829463183009</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02545375251061031</v>
+        <v>0.03800284695374122</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1099277640.240824</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>985711503.8681405</v>
+        <v>1254810561.322673</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09888837362775736</v>
+        <v>0.07817342562085682</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05121839496510767</v>
+        <v>0.03735521799081271</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>492855753.7433686</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1181356471.193398</v>
+        <v>1188321385.638587</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1021001479023747</v>
+        <v>0.09996956025419247</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02569699518317211</v>
+        <v>0.03659358112440259</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>590678237.8383491</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1961863883.721349</v>
+        <v>2381896996.719874</v>
       </c>
       <c r="F33" t="n">
-        <v>0.201486264696803</v>
+        <v>0.2068550309006228</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0573088219004133</v>
+        <v>0.05644145282200189</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>23</v>
-      </c>
-      <c r="J33" t="n">
-        <v>980932025.8141981</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1326842543.339056</v>
+        <v>1234344331.036746</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1000100825254179</v>
+        <v>0.1205664165326054</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02803695090765716</v>
+        <v>0.02734154832012712</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>663421255.819031</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>853741086.3781374</v>
+        <v>1204272187.363821</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1060838015277247</v>
+        <v>0.08695856265702287</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03582385394393423</v>
+        <v>0.02861670833077331</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>426870593.7517248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2853408585.083951</v>
+        <v>2667748900.410439</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1413174323178109</v>
+        <v>0.1239210903887381</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01974810741294234</v>
+        <v>0.02771892311019709</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1426704286.100356</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2571949849.79494</v>
+        <v>2547128569.138379</v>
       </c>
       <c r="F37" t="n">
-        <v>0.106489279065565</v>
+        <v>0.1028091360854654</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03018093193083538</v>
+        <v>0.02582365337026593</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1285975030.775945</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1503362188.863656</v>
+        <v>1991869224.318822</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0805299613131846</v>
+        <v>0.1217912667257152</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02833580948248104</v>
+        <v>0.03493255814759148</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>751681143.127393</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1922261812.022311</v>
+        <v>1545057996.187154</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1562729260627627</v>
+        <v>0.1683341310898153</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02467536027616331</v>
+        <v>0.02498035137404217</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>961130912.2492617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1338900458.141258</v>
+        <v>1726628744.674262</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1015159030521284</v>
+        <v>0.1228050799003488</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04224941907050711</v>
+        <v>0.04897996494782015</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>669450235.5299993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2777503352.598027</v>
+        <v>2229732308.378132</v>
       </c>
       <c r="F41" t="n">
-        <v>0.125959272465643</v>
+        <v>0.1494899385974237</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03329269062964085</v>
+        <v>0.03380951560711418</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>21</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1388751674.330993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3745525895.672338</v>
+        <v>3529796834.450953</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1179385622143198</v>
+        <v>0.1082527329530378</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03691913089213168</v>
+        <v>0.04183774066039189</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>27</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1872762959.509106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2322275916.05593</v>
+        <v>2243511098.47529</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1593254659631354</v>
+        <v>0.167156011102042</v>
       </c>
       <c r="G43" t="n">
-        <v>0.025668664494413</v>
+        <v>0.01625789291261351</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>29</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1161138024.482988</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2065207929.611591</v>
+        <v>1542910861.953619</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08193874438116605</v>
+        <v>0.09778288479670807</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03043023250753254</v>
+        <v>0.03092929142227061</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1032604084.069138</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2165750701.204331</v>
+        <v>2469833695.98954</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1367621872431322</v>
+        <v>0.183221302104104</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05567945848406167</v>
+        <v>0.04766464212709505</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1082875358.075472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4512448496.081708</v>
+        <v>4600385583.242508</v>
       </c>
       <c r="F46" t="n">
-        <v>0.146823647032974</v>
+        <v>0.1145855334188848</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04911353970757366</v>
+        <v>0.05676808784754812</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>29</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2256224246.863853</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3366448999.529321</v>
+        <v>3374027077.674485</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1982683219386021</v>
+        <v>0.1992330243862344</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05213021247805495</v>
+        <v>0.05201945798163589</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>22</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1683224462.902589</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4676455561.389276</v>
+        <v>4544400203.425288</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0726634910199383</v>
+        <v>0.06716538893472354</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03239607402336998</v>
+        <v>0.03365764226173339</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2338227775.664841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1327004376.774887</v>
+        <v>1428734954.190253</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1291689814353543</v>
+        <v>0.1553982918399341</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03700849833710672</v>
+        <v>0.04334419438281342</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>663502247.2213855</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2662683999.285155</v>
+        <v>3710597086.194859</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1194005678308478</v>
+        <v>0.1739197196195074</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03810151466006331</v>
+        <v>0.03966551444436855</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>28</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1331342083.40739</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1484120571.905298</v>
+        <v>1168940405.445006</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1477510793682434</v>
+        <v>0.1488681526124318</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05179974459721966</v>
+        <v>0.04387512009007274</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>742060291.3748908</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4170784457.749418</v>
+        <v>4423310065.573736</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1020266490316145</v>
+        <v>0.1064398741801604</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05793809499866159</v>
+        <v>0.04716542632906505</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>33</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2085392275.218306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3676968595.207971</v>
+        <v>3222480703.086133</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1238838357696016</v>
+        <v>0.1630042349773348</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03421730227077627</v>
+        <v>0.02231115215411245</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>23</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1838484283.172835</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3355313948.525824</v>
+        <v>4959258740.750809</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1298779751034662</v>
+        <v>0.1515730899060458</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04742268876374192</v>
+        <v>0.03717262292039079</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1677656987.634333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4088820132.276414</v>
+        <v>3569351810.504231</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1901401342127747</v>
+        <v>0.1351052905044433</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02240846653732153</v>
+        <v>0.0204394657742592</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2044410044.902782</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1302575179.841073</v>
+        <v>1481770183.211749</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1093750156953528</v>
+        <v>0.1503835338355009</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04410230444245712</v>
+        <v>0.04212379170751228</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>651287661.2996953</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3394873817.553155</v>
+        <v>4149659153.94167</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1381092526673798</v>
+        <v>0.1247934511268164</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02357849556973949</v>
+        <v>0.02009795532085238</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1697436946.257093</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1526793645.478167</v>
+        <v>1239407976.603415</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1646536609090267</v>
+        <v>0.1401620919083852</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0330968661979112</v>
+        <v>0.03507423281622754</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>763396851.3589411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5417370204.423724</v>
+        <v>3465551451.289047</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1291627838177101</v>
+        <v>0.123341658983111</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03951490360368526</v>
+        <v>0.03302629058071975</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>23</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2708685009.721358</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2562440514.772914</v>
+        <v>2369842795.154487</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1572807344586655</v>
+        <v>0.1575214534124868</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02211220784469802</v>
+        <v>0.02956294310763971</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1281220281.766384</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3394678738.113665</v>
+        <v>3250344638.172367</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1139375150726352</v>
+        <v>0.1408075731858379</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02275359832282893</v>
+        <v>0.02791862254029481</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1697339312.210326</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1912760068.778542</v>
+        <v>1466162551.864834</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1275192013091205</v>
+        <v>0.1854076933349833</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03511565453983566</v>
+        <v>0.04414924724837356</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>956380079.2559655</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4660439635.190075</v>
+        <v>4017306663.422505</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06772857259476484</v>
+        <v>0.09146254133367146</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03245907919162629</v>
+        <v>0.0439679794143862</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>23</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2330219850.425773</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5428774768.468463</v>
+        <v>4250840641.72342</v>
       </c>
       <c r="F64" t="n">
-        <v>0.187859294179234</v>
+        <v>0.1275146738252615</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02339321391050445</v>
+        <v>0.03174790861574326</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>25</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2714387520.510317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5763332027.088503</v>
+        <v>5208148610.194116</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1337051318979025</v>
+        <v>0.1103447789410542</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01947619611982877</v>
+        <v>0.02334419843923108</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>29</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2881665926.834044</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4750416504.058052</v>
+        <v>5418822058.390759</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1255612047392595</v>
+        <v>0.1462272787652691</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04515951773536232</v>
+        <v>0.04065476771766898</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>23</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2375208265.75257</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3437280360.048269</v>
+        <v>3420858838.437815</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08038776939335096</v>
+        <v>0.09047973336109287</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04047677740120221</v>
+        <v>0.03209075880827073</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>26</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1718640161.212589</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4855742151.252041</v>
+        <v>5910649407.358498</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1253087581841578</v>
+        <v>0.1226437249619457</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03331720179593167</v>
+        <v>0.03771416166745718</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>26</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2427871123.187637</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2408233612.321004</v>
+        <v>2034507142.596848</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1435613366916664</v>
+        <v>0.1548433441117497</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05641504995957843</v>
+        <v>0.05482065473365232</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1204116863.841461</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3316918430.705336</v>
+        <v>3019406200.764365</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08572515109604491</v>
+        <v>0.06431514623635598</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04070803542226296</v>
+        <v>0.04639089455088372</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>24</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1658459212.854149</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3776049520.584955</v>
+        <v>4360363022.293405</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1459704771995705</v>
+        <v>0.1692420432400029</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02221760355179806</v>
+        <v>0.02808771483355358</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1888024774.530958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2214869958.967731</v>
+        <v>2057918898.692262</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09151563902316116</v>
+        <v>0.08542037971424098</v>
       </c>
       <c r="G72" t="n">
-        <v>0.041733296932487</v>
+        <v>0.03533729874614921</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1107434891.082271</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2484947203.367656</v>
+        <v>2408649249.138798</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07518738680880198</v>
+        <v>0.09432084341636297</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04021870758666516</v>
+        <v>0.04985300864055549</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>31</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1242473644.715838</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4023893177.607129</v>
+        <v>3801690407.83573</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1805383627704013</v>
+        <v>0.1529556926777543</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02327497935097899</v>
+        <v>0.03361514582436803</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>28</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2011946565.619794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2073476259.78924</v>
+        <v>2074245606.030024</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1180390687208996</v>
+        <v>0.1618664419149512</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03762713917468567</v>
+        <v>0.03782900625396506</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1036738087.150048</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3662147486.171469</v>
+        <v>4744009166.987442</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1228439099254608</v>
+        <v>0.1170738053448066</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02903805725777317</v>
+        <v>0.03332571527166817</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1831073713.522306</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1402074665.558753</v>
+        <v>1704564395.027876</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1371069714030916</v>
+        <v>0.1356742062937447</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02285272893762328</v>
+        <v>0.02294421198035001</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>701037305.9067526</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4482123063.473076</v>
+        <v>4788609002.230015</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09004895102847729</v>
+        <v>0.1032132068955264</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04757564459834891</v>
+        <v>0.04006589890741435</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>29</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2241061462.835449</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1673286724.511676</v>
+        <v>1573738288.980042</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1183464202000114</v>
+        <v>0.1430440313220044</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0327953480949623</v>
+        <v>0.03949866932859303</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>836643426.6846235</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4091829321.896957</v>
+        <v>3554889102.649401</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09557443730504736</v>
+        <v>0.1034318568711716</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03003388628306404</v>
+        <v>0.03329687082730826</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>17</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2045914664.900873</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3437849925.408888</v>
+        <v>4008763880.650171</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117481735192119</v>
+        <v>0.1048465890237033</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03278883600566375</v>
+        <v>0.02111132323684411</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>19</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1718924904.952277</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3502714958.097704</v>
+        <v>3701339970.566623</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1952315910785258</v>
+        <v>0.2002976994795954</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0253804873222888</v>
+        <v>0.02782192684880552</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>30</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1751357546.494921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1619712756.854613</v>
+        <v>2242803079.155566</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1166435488499795</v>
+        <v>0.121862587191119</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03255915424387427</v>
+        <v>0.0370421263562913</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>809856316.3452413</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1668223131.863221</v>
+        <v>2173884774.706016</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07937396252865322</v>
+        <v>0.08246018486480082</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04723891296488895</v>
+        <v>0.04346125542730839</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>834111619.4382559</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3152148360.436619</v>
+        <v>2985729644.213233</v>
       </c>
       <c r="F85" t="n">
-        <v>0.141051770039578</v>
+        <v>0.1830709267527431</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04570753138787142</v>
+        <v>0.05562556218119751</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>30</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1576074257.075867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2389111362.152483</v>
+        <v>2074363802.848522</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1257810596637565</v>
+        <v>0.1184859572143062</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02338607329126039</v>
+        <v>0.016813737051229</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1194555762.735774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1321889117.477794</v>
+        <v>913370358.3157227</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1863936104830081</v>
+        <v>0.1580930102490682</v>
       </c>
       <c r="G87" t="n">
-        <v>0.030308079462366</v>
+        <v>0.03429384693483092</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>660944645.4814745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3427408409.606564</v>
+        <v>3579969116.644063</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1710319994046459</v>
+        <v>0.1662564095169066</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03505813970753387</v>
+        <v>0.03065720686132554</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>31</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1713704277.384314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2142050704.867305</v>
+        <v>2401999454.169675</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1544642562650664</v>
+        <v>0.1582535404539036</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03465897032625885</v>
+        <v>0.03298315762815309</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>27</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1071025453.345398</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1506628505.848249</v>
+        <v>1968987713.420217</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1336885489727471</v>
+        <v>0.1311336126197981</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05010602689735778</v>
+        <v>0.04622817476637249</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>753314232.8078319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1938035708.845054</v>
+        <v>2018993634.85615</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1179776888188812</v>
+        <v>0.1552016651721435</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05620839237902462</v>
+        <v>0.05034308766201143</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>969017834.8620678</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2046252138.685248</v>
+        <v>1928124970.614036</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06793431991048865</v>
+        <v>0.08981352651298601</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03059834039129887</v>
+        <v>0.04328678170257129</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>17</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1023126018.94714</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3075705760.025505</v>
+        <v>4638782433.640499</v>
       </c>
       <c r="F93" t="n">
-        <v>0.134697848163718</v>
+        <v>0.1321529627344445</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03867518315162114</v>
+        <v>0.05397242400835394</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>24</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1537852940.304232</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1693657473.957341</v>
+        <v>2084228318.318014</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1053060146820132</v>
+        <v>0.1359873100814598</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03376808054549418</v>
+        <v>0.03756242586266188</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>846828695.3771193</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3234355254.948145</v>
+        <v>2806682896.234665</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1317327059579142</v>
+        <v>0.08463590245637216</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04191198853636199</v>
+        <v>0.04254143700996608</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>19</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1617177610.083434</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1982220269.163181</v>
+        <v>2115841702.904477</v>
       </c>
       <c r="F96" t="n">
-        <v>0.14032247359824</v>
+        <v>0.1329053502327225</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0424436820719553</v>
+        <v>0.03992686172398506</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>991110123.3664038</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5325942069.960277</v>
+        <v>5045360358.758662</v>
       </c>
       <c r="F97" t="n">
-        <v>0.150492414470264</v>
+        <v>0.1267593049246646</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02142567541161404</v>
+        <v>0.02780488793522705</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>26</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2662971197.884354</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3646089081.446792</v>
+        <v>3702838301.751988</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1121240854565298</v>
+        <v>0.09256521747578322</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03164356544848177</v>
+        <v>0.0216079183733088</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>21</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1823044569.137239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2206228315.433071</v>
+        <v>2472597409.477954</v>
       </c>
       <c r="F99" t="n">
-        <v>0.108757696892611</v>
+        <v>0.137870864079118</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0269130402096683</v>
+        <v>0.02158527361351331</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>25</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1103114086.076815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4431128725.130309</v>
+        <v>3885420633.004381</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1787574151316219</v>
+        <v>0.1673696757706527</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0233779702224376</v>
+        <v>0.02030477018104423</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>25</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2215564467.546001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3168038458.462122</v>
+        <v>3178353090.788678</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1941519490970126</v>
+        <v>0.2188808455916929</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03796407261017598</v>
+        <v>0.05404017060513071</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>35</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1584019340.40555</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_81.xlsx
+++ b/output/fit_clients/fit_round_81.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1658647412.40985</v>
+        <v>2316245872.704326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07001797753846691</v>
+        <v>0.08865516856317536</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03129522355348007</v>
+        <v>0.04054769959839635</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1648614274.66562</v>
+        <v>1984053974.236511</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1838482655976306</v>
+        <v>0.1238324686772046</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04320004877098551</v>
+        <v>0.05037111550941781</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5053011195.825792</v>
+        <v>4238100670.316038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1668671244401473</v>
+        <v>0.1571718164341863</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02542239399371431</v>
+        <v>0.03481537845059025</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3741039000.080904</v>
+        <v>2627870856.670907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08190622806102307</v>
+        <v>0.07674343527972502</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03915364249126955</v>
+        <v>0.04850383304199998</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2437030356.016179</v>
+        <v>1849643730.143813</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1285406232077942</v>
+        <v>0.1193973175511368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05040556454020041</v>
+        <v>0.04703123079122928</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1953484028.207777</v>
+        <v>2577099783.663615</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09227331605192554</v>
+        <v>0.09915723557315617</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04791968764149218</v>
+        <v>0.04935855151593042</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2648612823.355459</v>
+        <v>3492898390.535914</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2174857762152048</v>
+        <v>0.1740958112634244</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02683981368897588</v>
+        <v>0.03195077321832607</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1776952931.534464</v>
+        <v>2109688251.986585</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1788327460553939</v>
+        <v>0.1977743402880844</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03197252372902141</v>
+        <v>0.03712137252094173</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4403716030.622909</v>
+        <v>4053864495.636078</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1851956305120502</v>
+        <v>0.1635974241306705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04839423480207093</v>
+        <v>0.03748831014129742</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3725300493.132493</v>
+        <v>3483282562.945846</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1804313023184424</v>
+        <v>0.1380017317871881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04228995561049704</v>
+        <v>0.03251495738682969</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2113145618.050085</v>
+        <v>2789411669.49064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1957172409849263</v>
+        <v>0.1714053154388799</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05056022371390725</v>
+        <v>0.05191536547896975</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4639008283.336864</v>
+        <v>4952167870.582019</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0713507560235736</v>
+        <v>0.07159408280707727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02114371730555376</v>
+        <v>0.02012828919783917</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2674780803.890466</v>
+        <v>3508129864.078548</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1210996564083003</v>
+        <v>0.1322910372629516</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04238400857075521</v>
+        <v>0.03058521377153416</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1552196225.798975</v>
+        <v>1404003351.407604</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07935480118554802</v>
+        <v>0.1015640808804719</v>
       </c>
       <c r="G15" t="n">
-        <v>0.048964963271152</v>
+        <v>0.03703193231485965</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2421477160.368534</v>
+        <v>2163012343.424899</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0886616296209819</v>
+        <v>0.08311041850046801</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0403014768295385</v>
+        <v>0.03260289320211711</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5303645116.366144</v>
+        <v>4773789023.606047</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1424577462877744</v>
+        <v>0.1289743729143908</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04741853111156687</v>
+        <v>0.0378487961145811</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2760997203.917123</v>
+        <v>3318415219.718591</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1696212848769119</v>
+        <v>0.1123478427777951</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03120912041146063</v>
+        <v>0.03019412894085305</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1295578295.343044</v>
+        <v>850058167.6528168</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1644849158601107</v>
+        <v>0.1540521485600616</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01727883902294077</v>
+        <v>0.02675099255911456</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2752480132.798351</v>
+        <v>2110128974.363289</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1231503628629158</v>
+        <v>0.1596323100891625</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02314433600628069</v>
+        <v>0.02518764395750756</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1987275950.567544</v>
+        <v>2524235937.155818</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06811164697160173</v>
+        <v>0.08173036232007282</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03793497571343916</v>
+        <v>0.04255668312551761</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3469823904.033611</v>
+        <v>2723563587.492105</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09640790454265108</v>
+        <v>0.1064241392336118</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0374712446636335</v>
+        <v>0.04292312689288193</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1463214446.40878</v>
+        <v>1499528404.900237</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1577290855012673</v>
+        <v>0.1426418392617133</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05210812952617664</v>
+        <v>0.03334495388490388</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3100756080.455315</v>
+        <v>2511233107.095996</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1089829745110066</v>
+        <v>0.09930649827880324</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02989935114241916</v>
+        <v>0.03576696131244552</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1455599930.698557</v>
+        <v>1338697981.212529</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08218427997887882</v>
+        <v>0.1142742720227725</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02974556979649878</v>
+        <v>0.02335589797535555</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1002027224.04732</v>
+        <v>1007215853.45043</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1213651037707283</v>
+        <v>0.1099024183899377</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02817645342891099</v>
+        <v>0.0331855413826506</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3632119261.751291</v>
+        <v>4035172245.593506</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1294676811886647</v>
+        <v>0.112836858154229</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01659835879836858</v>
+        <v>0.01862696211899416</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3277579578.29164</v>
+        <v>3752982883.455784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1250932843238547</v>
+        <v>0.1443163924223088</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03369505517782631</v>
+        <v>0.04855191265532571</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5935720688.309596</v>
+        <v>5157668579.960258</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1441955708033094</v>
+        <v>0.1078767541990716</v>
       </c>
       <c r="G29" t="n">
-        <v>0.033045119996824</v>
+        <v>0.03092010635770983</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1936750896.522926</v>
+        <v>2032616585.042602</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1197829463183009</v>
+        <v>0.1284405741369535</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03800284695374122</v>
+        <v>0.02818246606545365</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1254810561.322673</v>
+        <v>1080327836.506468</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07817342562085682</v>
+        <v>0.07645921510116575</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03735521799081271</v>
+        <v>0.03342181820625052</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1188321385.638587</v>
+        <v>1293364321.448071</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09996956025419247</v>
+        <v>0.08187778646836374</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03659358112440259</v>
+        <v>0.03069915444004283</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2381896996.719874</v>
+        <v>2965524563.545862</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2068550309006228</v>
+        <v>0.1798742644398173</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05644145282200189</v>
+        <v>0.04686337222216841</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1234344331.036746</v>
+        <v>1350249742.247127</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1205664165326054</v>
+        <v>0.07474122764804082</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02734154832012712</v>
+        <v>0.02190053688858439</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1204272187.363821</v>
+        <v>1202777022.39805</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08695856265702287</v>
+        <v>0.1158592395709826</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02861670833077331</v>
+        <v>0.03982794798003522</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2667748900.410439</v>
+        <v>2562321125.829743</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1239210903887381</v>
+        <v>0.1526506175919088</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02771892311019709</v>
+        <v>0.02664315756261425</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2547128569.138379</v>
+        <v>2684088476.280327</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1028091360854654</v>
+        <v>0.08752090741054158</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02582365337026593</v>
+        <v>0.02814541907998102</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1991869224.318822</v>
+        <v>1589903936.210248</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1217912667257152</v>
+        <v>0.1107658273750374</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03493255814759148</v>
+        <v>0.02820766828446624</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1545057996.187154</v>
+        <v>1871053794.776982</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1683341310898153</v>
+        <v>0.1265445273866358</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02498035137404217</v>
+        <v>0.02468676793656658</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1726628744.674262</v>
+        <v>1656683101.944376</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1228050799003488</v>
+        <v>0.1405412159440637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04897996494782015</v>
+        <v>0.04702597097544444</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2229732308.378132</v>
+        <v>2347983457.960638</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1494899385974237</v>
+        <v>0.1289519706720393</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03380951560711418</v>
+        <v>0.0368781792705189</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3529796834.450953</v>
+        <v>4176471540.08559</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1082527329530378</v>
+        <v>0.1199664743314283</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04183774066039189</v>
+        <v>0.04468481996311344</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2243511098.47529</v>
+        <v>3024364625.400257</v>
       </c>
       <c r="F43" t="n">
-        <v>0.167156011102042</v>
+        <v>0.1872538796071559</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01625789291261351</v>
+        <v>0.01738342892723301</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1542910861.953619</v>
+        <v>1768575925.91255</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09778288479670807</v>
+        <v>0.06554798149366503</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03092929142227061</v>
+        <v>0.02958191099238748</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2469833695.98954</v>
+        <v>1963339145.995435</v>
       </c>
       <c r="F45" t="n">
-        <v>0.183221302104104</v>
+        <v>0.1543110923218469</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04766464212709505</v>
+        <v>0.04477789263888876</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4600385583.242508</v>
+        <v>5531545528.395676</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1145855334188848</v>
+        <v>0.1454341694321955</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05676808784754812</v>
+        <v>0.05749928513395456</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3374027077.674485</v>
+        <v>3281933021.48316</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1992330243862344</v>
+        <v>0.1987119155232974</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05201945798163589</v>
+        <v>0.04090585956586348</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4544400203.425288</v>
+        <v>3613320805.219569</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06716538893472354</v>
+        <v>0.08077167149911624</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03365764226173339</v>
+        <v>0.03750107567816801</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1428734954.190253</v>
+        <v>1771364130.380488</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1553982918399341</v>
+        <v>0.1820841192097437</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04334419438281342</v>
+        <v>0.03455414795721118</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3710597086.194859</v>
+        <v>4198753992.666372</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1739197196195074</v>
+        <v>0.1564245842812582</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03966551444436855</v>
+        <v>0.05013745540013943</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1168940405.445006</v>
+        <v>1417448988.559152</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1488681526124318</v>
+        <v>0.1627270612853259</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04387512009007274</v>
+        <v>0.04782007857108164</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4423310065.573736</v>
+        <v>3594296378.314381</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1064398741801604</v>
+        <v>0.126491198387999</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04716542632906505</v>
+        <v>0.04785810505782543</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3222480703.086133</v>
+        <v>3238709700.797717</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1630042349773348</v>
+        <v>0.1780186557170007</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02231115215411245</v>
+        <v>0.03194951517126908</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4959258740.750809</v>
+        <v>3638613001.755464</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1515730899060458</v>
+        <v>0.1471332646952102</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03717262292039079</v>
+        <v>0.03505922043931069</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3569351810.504231</v>
+        <v>4920878384.845093</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1351052905044433</v>
+        <v>0.1402858821977813</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0204394657742592</v>
+        <v>0.03170842541525908</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1481770183.211749</v>
+        <v>1586395993.236602</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1503835338355009</v>
+        <v>0.1392545931858028</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04212379170751228</v>
+        <v>0.04467917145564703</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4149659153.94167</v>
+        <v>3191063874.844825</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1247934511268164</v>
+        <v>0.1542659264484208</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02009795532085238</v>
+        <v>0.02564454478668498</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1239407976.603415</v>
+        <v>1386743361.569106</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1401620919083852</v>
+        <v>0.1581106307309695</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03507423281622754</v>
+        <v>0.0390896268124445</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3465551451.289047</v>
+        <v>3416269589.714549</v>
       </c>
       <c r="F59" t="n">
-        <v>0.123341658983111</v>
+        <v>0.08928338579528516</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03302629058071975</v>
+        <v>0.03348789720962949</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2369842795.154487</v>
+        <v>2748192899.275218</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1575214534124868</v>
+        <v>0.1897228119961897</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02956294310763971</v>
+        <v>0.03326145703111603</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3250344638.172367</v>
+        <v>2593823363.334622</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1408075731858379</v>
+        <v>0.1264106927808668</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02791862254029481</v>
+        <v>0.03305525601043751</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1466162551.864834</v>
+        <v>1817374878.073014</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1854076933349833</v>
+        <v>0.1255226693534214</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04414924724837356</v>
+        <v>0.0357874326190766</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4017306663.422505</v>
+        <v>5580261248.556256</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09146254133367146</v>
+        <v>0.07757432324755743</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0439679794143862</v>
+        <v>0.03922943179666041</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4250840641.72342</v>
+        <v>4364684759.142737</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1275146738252615</v>
+        <v>0.1718300119535285</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03174790861574326</v>
+        <v>0.02254910396899507</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5208148610.194116</v>
+        <v>4436507275.617482</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1103447789410542</v>
+        <v>0.125518292272628</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02334419843923108</v>
+        <v>0.02103002531302391</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5418822058.390759</v>
+        <v>3551891166.025437</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1462272787652691</v>
+        <v>0.1370568029605537</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04065476771766898</v>
+        <v>0.0399135690042268</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3420858838.437815</v>
+        <v>3165481982.911695</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09047973336109287</v>
+        <v>0.08058986659223939</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03209075880827073</v>
+        <v>0.04960878205054189</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5910649407.358498</v>
+        <v>4270893932.164287</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1226437249619457</v>
+        <v>0.1514029917249505</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03771416166745718</v>
+        <v>0.05082748079199261</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2034507142.596848</v>
+        <v>1872655402.663685</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1548433441117497</v>
+        <v>0.1392000365466418</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05482065473365232</v>
+        <v>0.05301147347479391</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3019406200.764365</v>
+        <v>2716008776.178956</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06431514623635598</v>
+        <v>0.09298779006085456</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04639089455088372</v>
+        <v>0.03890483442033232</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4360363022.293405</v>
+        <v>3457138203.48896</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1692420432400029</v>
+        <v>0.1290111953728915</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02808771483355358</v>
+        <v>0.03346665795740242</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2057918898.692262</v>
+        <v>2148197150.370872</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08542037971424098</v>
+        <v>0.07199094978863173</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03533729874614921</v>
+        <v>0.0488877068056338</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2408649249.138798</v>
+        <v>2239407795.470911</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09432084341636297</v>
+        <v>0.08917837097849478</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04985300864055549</v>
+        <v>0.05217130046270516</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3801690407.83573</v>
+        <v>3577656597.832393</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1529556926777543</v>
+        <v>0.1188181799011891</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03361514582436803</v>
+        <v>0.0306846684191759</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2074245606.030024</v>
+        <v>1898274339.841388</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1618664419149512</v>
+        <v>0.1121793503403153</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03782900625396506</v>
+        <v>0.03360415577808126</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4744009166.987442</v>
+        <v>4021192080.572547</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1170738053448066</v>
+        <v>0.09625360002476543</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03332571527166817</v>
+        <v>0.03425095236187516</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1704564395.027876</v>
+        <v>1641284319.412098</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1356742062937447</v>
+        <v>0.1277915432984215</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02294421198035001</v>
+        <v>0.02057216003315024</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4788609002.230015</v>
+        <v>3609823147.070418</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1032132068955264</v>
+        <v>0.1210674601545129</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04006589890741435</v>
+        <v>0.05404687133960646</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1573738288.980042</v>
+        <v>1496315107.756411</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1430440313220044</v>
+        <v>0.1619995756567274</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03949866932859303</v>
+        <v>0.03743538617767347</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3554889102.649401</v>
+        <v>5512823730.870928</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1034318568711716</v>
+        <v>0.08680363689826359</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03329687082730826</v>
+        <v>0.02866375705229348</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4008763880.650171</v>
+        <v>3908943979.873107</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1048465890237033</v>
+        <v>0.1065763741558697</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02111132323684411</v>
+        <v>0.02813069350762004</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3701339970.566623</v>
+        <v>5394182597.639479</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2002976994795954</v>
+        <v>0.1750462221476509</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02782192684880552</v>
+        <v>0.01963533757583653</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2242803079.155566</v>
+        <v>2186907083.724302</v>
       </c>
       <c r="F83" t="n">
-        <v>0.121862587191119</v>
+        <v>0.1216502614905919</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0370421263562913</v>
+        <v>0.04496490661819644</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2173884774.706016</v>
+        <v>2599918204.742866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08246018486480082</v>
+        <v>0.07832342816847399</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04346125542730839</v>
+        <v>0.05058996042649106</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2985729644.213233</v>
+        <v>2779397038.11489</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1830709267527431</v>
+        <v>0.1759544472388916</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05562556218119751</v>
+        <v>0.05329517913420073</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2074363802.848522</v>
+        <v>2424268607.70917</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1184859572143062</v>
+        <v>0.1139210917514895</v>
       </c>
       <c r="G86" t="n">
-        <v>0.016813737051229</v>
+        <v>0.02532160346704932</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>913370358.3157227</v>
+        <v>1201036365.561758</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1580930102490682</v>
+        <v>0.171784499848244</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03429384693483092</v>
+        <v>0.03585755944493673</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3579969116.644063</v>
+        <v>3097654181.543014</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1662564095169066</v>
+        <v>0.1727843782401955</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03065720686132554</v>
+        <v>0.03771454237658552</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2401999454.169675</v>
+        <v>2816312750.680211</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1582535404539036</v>
+        <v>0.1511357675844529</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03298315762815309</v>
+        <v>0.02551733149714199</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1968987713.420217</v>
+        <v>2130609885.173281</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1311336126197981</v>
+        <v>0.114535685042072</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04622817476637249</v>
+        <v>0.04210865575608708</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2018993634.85615</v>
+        <v>1375711735.953252</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1552016651721435</v>
+        <v>0.1397006205719062</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05034308766201143</v>
+        <v>0.04412415935596267</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1928124970.614036</v>
+        <v>2360095338.732584</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08981352651298601</v>
+        <v>0.0992418628076963</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04328678170257129</v>
+        <v>0.04261522402095697</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4638782433.640499</v>
+        <v>4105985502.033089</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1321529627344445</v>
+        <v>0.1203500102985689</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05397242400835394</v>
+        <v>0.05291807625529021</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2084228318.318014</v>
+        <v>2270877835.365917</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1359873100814598</v>
+        <v>0.1069743836984134</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03756242586266188</v>
+        <v>0.03447029352886467</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2806682896.234665</v>
+        <v>2860866923.93282</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08463590245637216</v>
+        <v>0.1261018706783679</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04254143700996608</v>
+        <v>0.04946081244882532</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2115841702.904477</v>
+        <v>2274232265.699861</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1329053502327225</v>
+        <v>0.1359447817016457</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03992686172398506</v>
+        <v>0.03025254746500668</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5045360358.758662</v>
+        <v>4613578861.519499</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1267593049246646</v>
+        <v>0.1131130558595862</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02780488793522705</v>
+        <v>0.02020815956605572</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3702838301.751988</v>
+        <v>2905648599.946624</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09256521747578322</v>
+        <v>0.09710700813977693</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0216079183733088</v>
+        <v>0.02198657806250776</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2472597409.477954</v>
+        <v>2837827932.767553</v>
       </c>
       <c r="F99" t="n">
-        <v>0.137870864079118</v>
+        <v>0.1067084193138307</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02158527361351331</v>
+        <v>0.0321628786885901</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3885420633.004381</v>
+        <v>4475400053.645355</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1673696757706527</v>
+        <v>0.1406099345195918</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02030477018104423</v>
+        <v>0.0194304709419312</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3178353090.788678</v>
+        <v>3140187790.815068</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2188808455916929</v>
+        <v>0.1609603065925541</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05404017060513071</v>
+        <v>0.0403891897413427</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_81.xlsx
+++ b/output/fit_clients/fit_round_81.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2316245872.704326</v>
+        <v>2256971395.950574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08865516856317536</v>
+        <v>0.1095340749248674</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04054769959839635</v>
+        <v>0.0334788041104503</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1984053974.236511</v>
+        <v>2146867480.567913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1238324686772046</v>
+        <v>0.1811412545915496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05037111550941781</v>
+        <v>0.0503470774811962</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4238100670.316038</v>
+        <v>5121826418.074132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1571718164341863</v>
+        <v>0.1649643499607769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03481537845059025</v>
+        <v>0.03089007311774433</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2627870856.670907</v>
+        <v>2630535756.124775</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07674343527972502</v>
+        <v>0.1061367022618094</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04850383304199998</v>
+        <v>0.03875179291550409</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" t="n">
+        <v>82.60498288250838</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1849643730.143813</v>
+        <v>2683093810.926769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1193973175511368</v>
+        <v>0.0978353845409497</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04703123079122928</v>
+        <v>0.05302816466823325</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2577099783.663615</v>
+        <v>2576471981.52628</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09915723557315617</v>
+        <v>0.06766287242014384</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04935855151593042</v>
+        <v>0.03090016489859721</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3492898390.535914</v>
+        <v>3660595964.377554</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1740958112634244</v>
+        <v>0.1920247165722296</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03195077321832607</v>
+        <v>0.03275525578411066</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" t="n">
+        <v>81</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2109688251.986585</v>
+        <v>2064852315.086206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1977743402880844</v>
+        <v>0.1837576752868628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03712137252094173</v>
+        <v>0.02649191835772303</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4053864495.636078</v>
+        <v>5716464716.399948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1635974241306705</v>
+        <v>0.2117793738019609</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03748831014129742</v>
+        <v>0.05278157448188116</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>81</v>
+      </c>
+      <c r="K10" t="n">
+        <v>197.7693663413751</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3483282562.945846</v>
+        <v>2801210887.065439</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1380017317871881</v>
+        <v>0.1379321595832173</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03251495738682969</v>
+        <v>0.03746765371445364</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34</v>
+      </c>
+      <c r="J11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K11" t="n">
+        <v>94.32501008442163</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2789411669.49064</v>
+        <v>2910943362.429058</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1714053154388799</v>
+        <v>0.1959252777257637</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05191536547896975</v>
+        <v>0.04917354656816499</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4952167870.582019</v>
+        <v>4825560210.995017</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07159408280707727</v>
+        <v>0.08785153229695336</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02012828919783917</v>
+        <v>0.02213525737800145</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>41</v>
+      </c>
+      <c r="J13" t="n">
+        <v>81</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3508129864.078548</v>
+        <v>2560420263.89157</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1322910372629516</v>
+        <v>0.138436730597619</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03058521377153416</v>
+        <v>0.03980322940429033</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1404003351.407604</v>
+        <v>1261310078.259944</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1015640808804719</v>
+        <v>0.09211001750862002</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03703193231485965</v>
+        <v>0.03099852897775596</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2163012343.424899</v>
+        <v>2717497048.131263</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08311041850046801</v>
+        <v>0.1132441306425317</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03260289320211711</v>
+        <v>0.04539408302931837</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4773789023.606047</v>
+        <v>5049767812.825082</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1289743729143908</v>
+        <v>0.1193097313199966</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0378487961145811</v>
+        <v>0.05306933735638476</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>39</v>
+      </c>
+      <c r="J17" t="n">
+        <v>80</v>
+      </c>
+      <c r="K17" t="n">
+        <v>158.2285095273937</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3318415219.718591</v>
+        <v>2986167892.751311</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1123478427777951</v>
+        <v>0.1296279927968395</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03019412894085305</v>
+        <v>0.0226769944763118</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>78</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>850058167.6528168</v>
+        <v>862890662.3267689</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1540521485600616</v>
+        <v>0.16437592371132</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02675099255911456</v>
+        <v>0.01662814042998597</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2110128974.363289</v>
+        <v>2455501871.968959</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1596323100891625</v>
+        <v>0.1341509526001809</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02518764395750756</v>
+        <v>0.02197360896537883</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2524235937.155818</v>
+        <v>2411937418.454746</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08173036232007282</v>
+        <v>0.1010636811719321</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04255668312551761</v>
+        <v>0.03023312934875548</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2723563587.492105</v>
+        <v>3266324109.919917</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1064241392336118</v>
+        <v>0.1315800882254688</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04292312689288193</v>
+        <v>0.05683345889878134</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1499528404.900237</v>
+        <v>1271003801.039123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1426418392617133</v>
+        <v>0.1343798819466931</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03334495388490388</v>
+        <v>0.05222096066554686</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2511233107.095996</v>
+        <v>3369919065.232899</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09930649827880324</v>
+        <v>0.1430829258421255</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03576696131244552</v>
+        <v>0.03154489102380702</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>79</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1338697981.212529</v>
+        <v>1131901138.856813</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1142742720227725</v>
+        <v>0.08776687627512447</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02335589797535555</v>
+        <v>0.02813002232675096</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1007215853.45043</v>
+        <v>1204360467.973492</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1099024183899377</v>
+        <v>0.09789585448998303</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0331855413826506</v>
+        <v>0.03423019169374465</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4035172245.593506</v>
+        <v>4063382258.372128</v>
       </c>
       <c r="F27" t="n">
-        <v>0.112836858154229</v>
+        <v>0.1172349133038307</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01862696211899416</v>
+        <v>0.01838824162155972</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="n">
+        <v>81</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3752982883.455784</v>
+        <v>2551298612.783281</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1443163924223088</v>
+        <v>0.1147819677302447</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04855191265532571</v>
+        <v>0.04176492705451554</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>78</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5157668579.960258</v>
+        <v>5550549181.736685</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1078767541990716</v>
+        <v>0.1159481632516162</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03092010635770983</v>
+        <v>0.03142985209224886</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>75</v>
+      </c>
+      <c r="J29" t="n">
+        <v>81</v>
+      </c>
+      <c r="K29" t="n">
+        <v>208.1237340507358</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2032616585.042602</v>
+        <v>2263534357.534394</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1284405741369535</v>
+        <v>0.08707963666577201</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02818246606545365</v>
+        <v>0.03110734439905952</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1080327836.506468</v>
+        <v>1435889876.980105</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07645921510116575</v>
+        <v>0.07020370111219339</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03342181820625052</v>
+        <v>0.04991482284321048</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1293364321.448071</v>
+        <v>1205463160.700318</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08187778646836374</v>
+        <v>0.09381973236693886</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03069915444004283</v>
+        <v>0.03082198007507574</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2965524563.545862</v>
+        <v>2759377937.40923</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1798742644398173</v>
+        <v>0.1857193459050761</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04686337222216841</v>
+        <v>0.05105233768873156</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1350249742.247127</v>
+        <v>1433319704.99867</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07474122764804082</v>
+        <v>0.09971222011736507</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02190053688858439</v>
+        <v>0.02216457708931745</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1202777022.39805</v>
+        <v>1159614853.778082</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1158592395709826</v>
+        <v>0.1122180549358847</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03982794798003522</v>
+        <v>0.03565005484045141</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2562321125.829743</v>
+        <v>3183558267.914717</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1526506175919088</v>
+        <v>0.1096537554452616</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02664315756261425</v>
+        <v>0.01757027919986344</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2684088476.280327</v>
+        <v>1793122273.155395</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08752090741054158</v>
+        <v>0.101668659699942</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02814541907998102</v>
+        <v>0.04223427506702843</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1589903936.210248</v>
+        <v>2151316441.025661</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1107658273750374</v>
+        <v>0.07520039805055262</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02820766828446624</v>
+        <v>0.03682294798793676</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1871053794.776982</v>
+        <v>1507165251.069905</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1265445273866358</v>
+        <v>0.1723404501115513</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02468676793656658</v>
+        <v>0.02128320245104386</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1656683101.944376</v>
+        <v>1823373736.375468</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1405412159440637</v>
+        <v>0.1623564835363896</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04702597097544444</v>
+        <v>0.04341913862615881</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2347983457.960638</v>
+        <v>1804415646.034715</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1289519706720393</v>
+        <v>0.1623322291228135</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0368781792705189</v>
+        <v>0.04432813727777971</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4176471540.08559</v>
+        <v>4337395936.616506</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1199664743314283</v>
+        <v>0.1110069553846747</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04468481996311344</v>
+        <v>0.02962675709477236</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>81</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3024364625.400257</v>
+        <v>2030230385.844123</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1872538796071559</v>
+        <v>0.1598687601498358</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01738342892723301</v>
+        <v>0.01659273221098376</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1768575925.91255</v>
+        <v>1505045952.414338</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06554798149366503</v>
+        <v>0.08005118808556055</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02958191099238748</v>
+        <v>0.02236935570400167</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1963339145.995435</v>
+        <v>2035652632.398098</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1543110923218469</v>
+        <v>0.1864654958057844</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04477789263888876</v>
+        <v>0.0410179079714976</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5531545528.395676</v>
+        <v>4078028889.060778</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1454341694321955</v>
+        <v>0.1170561143180272</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05749928513395456</v>
+        <v>0.05743504179973289</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>47</v>
+      </c>
+      <c r="J46" t="n">
+        <v>80</v>
+      </c>
+      <c r="K46" t="n">
+        <v>176.1840825980308</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3281933021.48316</v>
+        <v>3557761125.789682</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1987119155232974</v>
+        <v>0.1529939597534716</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04090585956586348</v>
+        <v>0.04268582102590113</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>36</v>
+      </c>
+      <c r="J47" t="n">
+        <v>81</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3613320805.219569</v>
+        <v>4062030455.576574</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08077167149911624</v>
+        <v>0.07745400094258778</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03750107567816801</v>
+        <v>0.02803429466285922</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" t="n">
+        <v>81</v>
+      </c>
+      <c r="K48" t="n">
+        <v>181.6928204804805</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1771364130.380488</v>
+        <v>1823933559.185013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1820841192097437</v>
+        <v>0.1919211936122764</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03455414795721118</v>
+        <v>0.03272991811731161</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4198753992.666372</v>
+        <v>3118658435.25008</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1564245842812582</v>
+        <v>0.1145327253395739</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05013745540013943</v>
+        <v>0.04963306448878618</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>79</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1417448988.559152</v>
+        <v>952222379.2964505</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1627270612853259</v>
+        <v>0.1403606130755637</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04782007857108164</v>
+        <v>0.04125858601823519</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3594296378.314381</v>
+        <v>3440879277.148541</v>
       </c>
       <c r="F52" t="n">
-        <v>0.126491198387999</v>
+        <v>0.1244310048080382</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04785810505782543</v>
+        <v>0.04221855499517244</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>63</v>
+      </c>
+      <c r="J52" t="n">
+        <v>80</v>
+      </c>
+      <c r="K52" t="n">
+        <v>135.6627816569936</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3238709700.797717</v>
+        <v>2502552862.51724</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1780186557170007</v>
+        <v>0.1594607285337071</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03194951517126908</v>
+        <v>0.03147584204645699</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3638613001.755464</v>
+        <v>4710653298.22417</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1471332646952102</v>
+        <v>0.1389986205149535</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03505922043931069</v>
+        <v>0.03834217634608011</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>37</v>
+      </c>
+      <c r="J54" t="n">
+        <v>80</v>
+      </c>
+      <c r="K54" t="n">
+        <v>176.8256540825664</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4920878384.845093</v>
+        <v>4801685943.521175</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1402858821977813</v>
+        <v>0.1774953643091046</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03170842541525908</v>
+        <v>0.02556092848221926</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>37</v>
+      </c>
+      <c r="J55" t="n">
+        <v>80</v>
+      </c>
+      <c r="K55" t="n">
+        <v>159.5900099002439</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1586395993.236602</v>
+        <v>1216173919.368062</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1392545931858028</v>
+        <v>0.1076715505244612</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04467917145564703</v>
+        <v>0.03533687878298417</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3191063874.844825</v>
+        <v>4011956463.713692</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1542659264484208</v>
+        <v>0.1153388788478281</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02564454478668498</v>
+        <v>0.01981836649535707</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29</v>
+      </c>
+      <c r="J57" t="n">
+        <v>81</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1386743361.569106</v>
+        <v>1513221188.11686</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1581106307309695</v>
+        <v>0.126902029681393</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0390896268124445</v>
+        <v>0.03435187521956878</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3416269589.714549</v>
+        <v>4345155845.936898</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08928338579528516</v>
+        <v>0.1144542936112742</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03348789720962949</v>
+        <v>0.03531006850052745</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>39</v>
+      </c>
+      <c r="J59" t="n">
+        <v>81</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2748192899.275218</v>
+        <v>3172289916.2531</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1897228119961897</v>
+        <v>0.1951117441128569</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03326145703111603</v>
+        <v>0.02015376032728631</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>76</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2593823363.334622</v>
+        <v>2715726791.931479</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1264106927808668</v>
+        <v>0.1329363198237543</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03305525601043751</v>
+        <v>0.02957823745993221</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1817374878.073014</v>
+        <v>1303236993.778709</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1255226693534214</v>
+        <v>0.1230541807651729</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0357874326190766</v>
+        <v>0.04345470820582487</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5580261248.556256</v>
+        <v>3409856861.029826</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07757432324755743</v>
+        <v>0.0842264826683827</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03922943179666041</v>
+        <v>0.03059183778535475</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>40</v>
+      </c>
+      <c r="J63" t="n">
+        <v>80</v>
+      </c>
+      <c r="K63" t="n">
+        <v>117.2627742959037</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4364684759.142737</v>
+        <v>4138767166.870996</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1718300119535285</v>
+        <v>0.1278174247970109</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02254910396899507</v>
+        <v>0.02199871849731828</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>40</v>
+      </c>
+      <c r="J64" t="n">
+        <v>80</v>
+      </c>
+      <c r="K64" t="n">
+        <v>169.2407204112755</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4436507275.617482</v>
+        <v>4850512682.11313</v>
       </c>
       <c r="F65" t="n">
-        <v>0.125518292272628</v>
+        <v>0.1565633980115725</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02103002531302391</v>
+        <v>0.02933713669213902</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>65</v>
+      </c>
+      <c r="J65" t="n">
+        <v>81</v>
+      </c>
+      <c r="K65" t="n">
+        <v>181.1681751890587</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3551891166.025437</v>
+        <v>3980813557.923537</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1370568029605537</v>
+        <v>0.1318703350357325</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0399135690042268</v>
+        <v>0.03669923162006015</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>40</v>
+      </c>
+      <c r="J66" t="n">
+        <v>80</v>
+      </c>
+      <c r="K66" t="n">
+        <v>164.9426099138867</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3165481982.911695</v>
+        <v>2588147033.080814</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08058986659223939</v>
+        <v>0.09486411423004368</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04960878205054189</v>
+        <v>0.05146567040049812</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4270893932.164287</v>
+        <v>4383058775.075053</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1514029917249505</v>
+        <v>0.1545027087881494</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05082748079199261</v>
+        <v>0.03979183611920329</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>40</v>
+      </c>
+      <c r="J68" t="n">
+        <v>81</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1872655402.663685</v>
+        <v>1925789759.906148</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1392000365466418</v>
+        <v>0.1501495517099489</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05301147347479391</v>
+        <v>0.05109591878963209</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2716008776.178956</v>
+        <v>3657901532.064687</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09298779006085456</v>
+        <v>0.09908274434103982</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03890483442033232</v>
+        <v>0.03870631011865254</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3457138203.48896</v>
+        <v>4042771567.655663</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1290111953728915</v>
+        <v>0.1649925116267386</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03346665795740242</v>
+        <v>0.02070555875049884</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>67</v>
+      </c>
+      <c r="J71" t="n">
+        <v>81</v>
+      </c>
+      <c r="K71" t="n">
+        <v>184.2055868535483</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2148197150.370872</v>
+        <v>1718996111.18579</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07199094978863173</v>
+        <v>0.08369628298187426</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0488877068056338</v>
+        <v>0.04221301665144753</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2239407795.470911</v>
+        <v>2794129877.209925</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08917837097849478</v>
+        <v>0.1125471030966302</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05217130046270516</v>
+        <v>0.04315816475757247</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3577656597.832393</v>
+        <v>3477471905.805423</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1188181799011891</v>
+        <v>0.1730663914605654</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0306846684191759</v>
+        <v>0.03559455433069945</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>24</v>
+      </c>
+      <c r="J74" t="n">
+        <v>79</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1898274339.841388</v>
+        <v>1599545165.238347</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1121793503403153</v>
+        <v>0.1125022942830348</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03360415577808126</v>
+        <v>0.03047166636850613</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4021192080.572547</v>
+        <v>4939714152.339639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09625360002476543</v>
+        <v>0.1206393310613713</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03425095236187516</v>
+        <v>0.0322845005298816</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>37</v>
+      </c>
+      <c r="J76" t="n">
+        <v>81</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1641284319.412098</v>
+        <v>2217402086.328644</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1277915432984215</v>
+        <v>0.123912281193097</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02057216003315024</v>
+        <v>0.02636359807904392</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3609823147.070418</v>
+        <v>3868599464.292118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1210674601545129</v>
+        <v>0.1265915140569082</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05404687133960646</v>
+        <v>0.05356461777852536</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>39</v>
+      </c>
+      <c r="J78" t="n">
+        <v>80</v>
+      </c>
+      <c r="K78" t="n">
+        <v>170.7811149756341</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1496315107.756411</v>
+        <v>1342695249.082018</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1619995756567274</v>
+        <v>0.1206485457501251</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03743538617767347</v>
+        <v>0.03389489882741265</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5512823730.870928</v>
+        <v>5501510499.818339</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08680363689826359</v>
+        <v>0.08969366299021593</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02866375705229348</v>
+        <v>0.03217825925454191</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>39</v>
+      </c>
+      <c r="J80" t="n">
+        <v>80</v>
+      </c>
+      <c r="K80" t="n">
+        <v>138.7129113617496</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3908943979.873107</v>
+        <v>4191802342.825422</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1065763741558697</v>
+        <v>0.1150336261454813</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02813069350762004</v>
+        <v>0.02107012789903276</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>36</v>
+      </c>
+      <c r="J81" t="n">
+        <v>81</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5394182597.639479</v>
+        <v>3672325135.862647</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1750462221476509</v>
+        <v>0.1857726269516254</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01963533757583653</v>
+        <v>0.02478694429458517</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>51</v>
+      </c>
+      <c r="J82" t="n">
+        <v>80</v>
+      </c>
+      <c r="K82" t="n">
+        <v>154.4000775282915</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2186907083.724302</v>
+        <v>1929273426.107945</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1216502614905919</v>
+        <v>0.1243091986423755</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04496490661819644</v>
+        <v>0.03717785635545168</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2599918204.742866</v>
+        <v>2513003040.191222</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07832342816847399</v>
+        <v>0.1060254372923688</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05058996042649106</v>
+        <v>0.0461551413985114</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2779397038.11489</v>
+        <v>3247213014.10684</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1759544472388916</v>
+        <v>0.1224912773304299</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05329517913420073</v>
+        <v>0.04408568050292341</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="n">
+        <v>124.7179324019235</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2424268607.70917</v>
+        <v>2115990023.706895</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1139210917514895</v>
+        <v>0.1576044632957287</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02532160346704932</v>
+        <v>0.02366797949227791</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1201036365.561758</v>
+        <v>925421688.3859215</v>
       </c>
       <c r="F87" t="n">
-        <v>0.171784499848244</v>
+        <v>0.1607033838254898</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03585755944493673</v>
+        <v>0.031359046651349</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3097654181.543014</v>
+        <v>3611097708.096526</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1727843782401955</v>
+        <v>0.1743682378522624</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03771454237658552</v>
+        <v>0.02482443205073405</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>81</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2816312750.680211</v>
+        <v>2861027636.210983</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1511357675844529</v>
+        <v>0.1067865130931034</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02551733149714199</v>
+        <v>0.03415627703348859</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2130609885.173281</v>
+        <v>1504258621.944448</v>
       </c>
       <c r="F90" t="n">
-        <v>0.114535685042072</v>
+        <v>0.1245889848004427</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04210865575608708</v>
+        <v>0.05605589983310048</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1375711735.953252</v>
+        <v>1684224320.559857</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1397006205719062</v>
+        <v>0.1827436751006843</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04412415935596267</v>
+        <v>0.04177069249057716</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2360095338.732584</v>
+        <v>2454857788.224257</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0992418628076963</v>
+        <v>0.099857592286156</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04261522402095697</v>
+        <v>0.03501762339801873</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4105985502.033089</v>
+        <v>4541011460.073388</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1203500102985689</v>
+        <v>0.139222643931189</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05291807625529021</v>
+        <v>0.0515343969292017</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>36</v>
+      </c>
+      <c r="J93" t="n">
+        <v>81</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2270877835.365917</v>
+        <v>1770894142.677262</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1069743836984134</v>
+        <v>0.1678297638159985</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03447029352886467</v>
+        <v>0.04265539074109292</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2860866923.93282</v>
+        <v>2805782123.52784</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1261018706783679</v>
+        <v>0.1210916089775231</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04946081244882532</v>
+        <v>0.04954314117241634</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2274232265.699861</v>
+        <v>1864483228.300222</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1359447817016457</v>
+        <v>0.1202218660181897</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03025254746500668</v>
+        <v>0.03312485556909849</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4613578861.519499</v>
+        <v>4018617944.431857</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1131130558595862</v>
+        <v>0.1080634897406076</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02020815956605572</v>
+        <v>0.02725772035425229</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>39</v>
+      </c>
+      <c r="J97" t="n">
+        <v>80</v>
+      </c>
+      <c r="K97" t="n">
+        <v>171.058811546043</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2905648599.946624</v>
+        <v>3931905234.10914</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09710700813977693</v>
+        <v>0.12681300543339</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02198657806250776</v>
+        <v>0.02095366457154509</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>16</v>
+      </c>
+      <c r="J98" t="n">
+        <v>81</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2837827932.767553</v>
+        <v>2558860950.378813</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1067084193138307</v>
+        <v>0.1024317528099133</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0321628786885901</v>
+        <v>0.02698989964659027</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4475400053.645355</v>
+        <v>3030998378.811311</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1406099345195918</v>
+        <v>0.1279866718775777</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0194304709419312</v>
+        <v>0.02335863635073405</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>33</v>
+      </c>
+      <c r="J100" t="n">
+        <v>78</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3140187790.815068</v>
+        <v>3557230433.272231</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1609603065925541</v>
+        <v>0.2168008036139784</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0403891897413427</v>
+        <v>0.04888433034292919</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
